--- a/resultData/Видеокамеры.xlsx
+++ b/resultData/Видеокамеры.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clouds\Dropbox\programming\UTM\resultData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1340F7-5D27-40F3-BACC-E0F876F9868D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Видеокамеры" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Видеокамеры" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Видеокамеры!$A$3:$AN$3</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="424">
   <si>
     <t>Встречаемость</t>
   </si>
@@ -1292,20 +1300,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1321,15 +1328,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1617,248 +1633,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" t="s"/>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="n">
-        <v>838.8868778280543</v>
-      </c>
-      <c r="G1" t="n">
+      <c r="F1">
+        <v>838.88687782805425</v>
+      </c>
+      <c r="G1">
         <v>0</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1">
         <v>61798</v>
       </c>
-      <c r="I1" t="n">
-        <v>42.28877737226277</v>
-      </c>
-      <c r="J1" t="n">
-        <v>26484.85714285714</v>
-      </c>
-      <c r="K1" t="n">
+      <c r="I1">
+        <v>42.288777372262771</v>
+      </c>
+      <c r="J1">
+        <v>26484.857142857141</v>
+      </c>
+      <c r="K1">
         <v>92697</v>
       </c>
-      <c r="L1" t="n">
+      <c r="L1">
         <v>0</v>
       </c>
-      <c r="M1" t="n">
+      <c r="M1">
         <v>0</v>
       </c>
-      <c r="N1" t="n">
+      <c r="N1">
         <v>92697</v>
       </c>
-      <c r="O1" t="n">
+      <c r="O1">
         <v>185394</v>
       </c>
-      <c r="P1" t="n">
+      <c r="P1">
         <v>46348.5</v>
       </c>
-      <c r="Q1" t="n">
-        <v>1252.662162162162</v>
-      </c>
-      <c r="R1" t="n">
+      <c r="Q1">
+        <v>1252.6621621621621</v>
+      </c>
+      <c r="R1">
         <v>0</v>
       </c>
-      <c r="S1" t="n">
-        <v>22.67261831967714</v>
-      </c>
-      <c r="T1" t="n">
-        <v>86.43076923076923</v>
-      </c>
-      <c r="U1" t="n">
+      <c r="S1">
+        <v>22.672618319677142</v>
+      </c>
+      <c r="T1">
+        <v>86.430769230769229</v>
+      </c>
+      <c r="U1">
         <v>61.90116861435726</v>
       </c>
-      <c r="V1" t="n">
-        <v>75.39406262708418</v>
-      </c>
-      <c r="W1" t="n">
-        <v>21.52490421455939</v>
-      </c>
-      <c r="X1" t="n">
-        <v>28.77001862197393</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>19.66627771295216</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1196.090322580645</v>
-      </c>
-      <c r="AA1" t="n">
+      <c r="V1">
+        <v>75.394062627084182</v>
+      </c>
+      <c r="W1">
+        <v>21.524904214559388</v>
+      </c>
+      <c r="X1">
+        <v>28.770018621973929</v>
+      </c>
+      <c r="Y1">
+        <v>19.666277712952159</v>
+      </c>
+      <c r="Z1">
+        <v>1196.0903225806451</v>
+      </c>
+      <c r="AA1">
         <v>108.5444964871194</v>
       </c>
-      <c r="AB1" t="n">
-        <v>69.7756868648852</v>
-      </c>
-      <c r="AC1" t="n">
+      <c r="AB1">
+        <v>69.775686864885202</v>
+      </c>
+      <c r="AC1">
         <v>148.910843373494</v>
       </c>
-      <c r="AD1" t="n">
-        <v>54.96412689000889</v>
-      </c>
-      <c r="AE1" t="n">
+      <c r="AD1">
+        <v>54.964126890008892</v>
+      </c>
+      <c r="AE1">
         <v>30899</v>
       </c>
-      <c r="AF1" t="n">
+      <c r="AF1">
         <v>61798</v>
       </c>
-      <c r="AG1" t="n">
+      <c r="AG1">
         <v>13.87264292128105</v>
       </c>
-      <c r="AH1" t="n">
+      <c r="AH1">
         <v>7415.76</v>
       </c>
-      <c r="AI1" t="n">
+      <c r="AI1">
         <v>0</v>
       </c>
-      <c r="AJ1" t="n">
+      <c r="AJ1">
         <v>185394</v>
       </c>
-      <c r="AK1" t="n">
+      <c r="AK1">
         <v>0</v>
       </c>
-      <c r="AL1" t="n">
+      <c r="AL1">
         <v>92697</v>
       </c>
-      <c r="AM1" t="n">
-        <v>2037.296703296703</v>
-      </c>
-      <c r="AN1" t="n">
+      <c r="AM1">
+        <v>2037.2967032967031</v>
+      </c>
+      <c r="AN1">
         <v>185394</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>37078.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9757.57894736842</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="F2">
+        <v>37078.800000000003</v>
+      </c>
+      <c r="G2">
+        <v>9757.5789473684199</v>
+      </c>
+      <c r="H2">
         <v>14261.07692307692</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>16854</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>7724.75</v>
       </c>
-      <c r="K2" t="n">
-        <v>5980.451612903225</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>5980.4516129032254</v>
+      </c>
+      <c r="L2">
         <v>8060.608695652174</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>92697</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>46348.5</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>46348.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>61798</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>185394</v>
       </c>
-      <c r="R2" t="n">
-        <v>37078.8</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="R2">
+        <v>37078.800000000003</v>
+      </c>
+      <c r="S2">
         <v>185394</v>
       </c>
-      <c r="T2" t="n">
-        <v>9757.57894736842</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2">
+        <v>9757.5789473684199</v>
+      </c>
+      <c r="U2">
         <v>185394</v>
       </c>
-      <c r="V2" t="n">
-        <v>37078.8</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="V2">
+        <v>37078.800000000003</v>
+      </c>
+      <c r="W2">
         <v>10299.66666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>23174.25</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>4878.78947368421</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>46348.5</v>
       </c>
-      <c r="AA2" t="n">
-        <v>13242.42857142857</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>13242.42857142857</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>20599.33333333333</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2990.225806451613</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AA2">
+        <v>13242.428571428571</v>
+      </c>
+      <c r="AB2">
+        <v>13242.428571428571</v>
+      </c>
+      <c r="AC2">
+        <v>20599.333333333328</v>
+      </c>
+      <c r="AD2">
+        <v>2990.2258064516132</v>
+      </c>
+      <c r="AE2">
         <v>30899</v>
       </c>
-      <c r="AF2" t="n">
-        <v>18539.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3310.607142857143</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AF2">
+        <v>18539.400000000001</v>
+      </c>
+      <c r="AG2">
+        <v>3310.6071428571431</v>
+      </c>
+      <c r="AH2">
         <v>61798</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>92697</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>46348.5</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>30899</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>92697</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>23174.25</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>92697</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1980,9 +1984,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="n">
-        <v>6699475.72062383</v>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6699475.7206238303</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1996,14 +2000,12 @@
       <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s"/>
       <c r="J4" t="s">
         <v>47</v>
       </c>
@@ -2013,7 +2015,6 @@
       <c r="L4" t="s">
         <v>49</v>
       </c>
-      <c r="M4" t="s"/>
       <c r="N4" t="s">
         <v>50</v>
       </c>
@@ -2023,48 +2024,31 @@
       <c r="P4" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" t="s"/>
       <c r="R4" t="s">
         <v>53</v>
       </c>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
       <c r="V4" t="s">
         <v>54</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
-      <c r="Z4" t="s"/>
       <c r="AA4" t="s">
         <v>55</v>
       </c>
       <c r="AB4" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" t="s"/>
       <c r="AD4" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" t="s"/>
-      <c r="AF4" t="s"/>
       <c r="AG4" t="s">
         <v>58</v>
       </c>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
       <c r="AK4" t="s">
         <v>59</v>
       </c>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="n">
-        <v>6123482.065536661</v>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6123482.0655366611</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -2078,7 +2062,6 @@
       <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>62</v>
       </c>
@@ -2097,7 +2080,6 @@
       <c r="L5" t="s">
         <v>49</v>
       </c>
-      <c r="M5" t="s"/>
       <c r="N5" t="s">
         <v>50</v>
       </c>
@@ -2107,20 +2089,12 @@
       <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" t="s"/>
       <c r="R5" t="s">
         <v>68</v>
       </c>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
       <c r="Y5" t="s">
         <v>69</v>
       </c>
-      <c r="Z5" t="s"/>
       <c r="AA5" t="s">
         <v>70</v>
       </c>
@@ -2133,20 +2107,10 @@
       <c r="AD5" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" t="s"/>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="n">
-        <v>4776432.733117813</v>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4776432.7331178132</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -2160,61 +2124,34 @@
       <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
       <c r="J6" t="s">
         <v>77</v>
       </c>
       <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
       <c r="AA6" t="s">
         <v>79</v>
       </c>
       <c r="AB6" t="s">
         <v>80</v>
       </c>
-      <c r="AC6" t="s"/>
       <c r="AD6" t="s">
         <v>81</v>
       </c>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
       <c r="AG6" t="s">
         <v>82</v>
       </c>
       <c r="AH6" t="s">
         <v>83</v>
       </c>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="n">
-        <v>3758606.560226111</v>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3758606.5602261112</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -2231,35 +2168,15 @@
       <c r="F7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s"/>
       <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
       <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
       <c r="V7" t="s">
         <v>89</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
       <c r="AD7" t="s">
         <v>90</v>
       </c>
@@ -2272,19 +2189,13 @@
       <c r="AG7" t="s">
         <v>93</v>
       </c>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
       <c r="AM7" t="s">
         <v>94</v>
       </c>
-      <c r="AN7" t="s"/>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="n">
-        <v>3677087.472734809</v>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3677087.4727348089</v>
       </c>
       <c r="B8" t="s">
         <v>95</v>
@@ -2298,10 +2209,6 @@
       <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
       <c r="J8" t="s">
         <v>97</v>
       </c>
@@ -2311,54 +2218,34 @@
       <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>50</v>
       </c>
       <c r="O8" t="s">
         <v>99</v>
       </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
       <c r="R8" t="s">
         <v>100</v>
       </c>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
       <c r="AA8" t="s">
         <v>55</v>
       </c>
       <c r="AB8" t="s">
         <v>101</v>
       </c>
-      <c r="AC8" t="s"/>
       <c r="AD8" t="s">
         <v>102</v>
       </c>
       <c r="AE8" t="s">
         <v>103</v>
       </c>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
       <c r="AK8" t="s">
         <v>104</v>
       </c>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="n">
-        <v>3656467.84928315</v>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3656467.8492831499</v>
       </c>
       <c r="B9" t="s">
         <v>105</v>
@@ -2372,10 +2259,6 @@
       <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
       <c r="J9" t="s">
         <v>65</v>
       </c>
@@ -2385,46 +2268,22 @@
       <c r="L9" t="s">
         <v>108</v>
       </c>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
       <c r="T9" t="s">
         <v>109</v>
       </c>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
       <c r="AC9" t="s">
         <v>110</v>
       </c>
       <c r="AD9" t="s">
         <v>111</v>
       </c>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
       <c r="AG9" t="s">
         <v>112</v>
       </c>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="n">
-        <v>3567932.15711639</v>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3567932.1571163898</v>
       </c>
       <c r="B10" t="s">
         <v>113</v>
@@ -2438,59 +2297,31 @@
       <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
       <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="J10" t="s"/>
       <c r="K10" t="s">
         <v>115</v>
       </c>
       <c r="L10" t="s">
         <v>49</v>
       </c>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
       <c r="T10" t="s">
         <v>116</v>
       </c>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
       <c r="Y10" t="s">
         <v>117</v>
       </c>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
       <c r="AD10" t="s">
         <v>118</v>
       </c>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
       <c r="AG10" t="s">
         <v>119</v>
       </c>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="n">
-        <v>3394358.241229819</v>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3394358.2412298191</v>
       </c>
       <c r="B11" t="s">
         <v>120</v>
@@ -2504,54 +2335,24 @@
       <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
       <c r="K11" t="s">
         <v>122</v>
       </c>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
       <c r="W11" t="s">
         <v>123</v>
       </c>
-      <c r="X11" t="s"/>
       <c r="Y11" t="s">
         <v>124</v>
       </c>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
       <c r="AD11" t="s">
         <v>125</v>
       </c>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
       <c r="AG11" t="s">
         <v>112</v>
       </c>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="n">
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>3331883.804027101</v>
       </c>
       <c r="B12" t="s">
@@ -2572,38 +2373,21 @@
       <c r="G12" t="s">
         <v>129</v>
       </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
       <c r="M12" t="s">
         <v>130</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
       <c r="T12" t="s">
         <v>131</v>
       </c>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
       <c r="Y12" t="s">
         <v>132</v>
       </c>
-      <c r="Z12" t="s"/>
       <c r="AA12" t="s">
         <v>133</v>
       </c>
       <c r="AB12" t="s">
         <v>134</v>
       </c>
-      <c r="AC12" t="s"/>
       <c r="AD12" t="s">
         <v>135</v>
       </c>
@@ -2625,7 +2409,6 @@
       <c r="AJ12" t="s">
         <v>141</v>
       </c>
-      <c r="AK12" t="s"/>
       <c r="AL12" t="s">
         <v>142</v>
       </c>
@@ -2636,9 +2419,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="n">
-        <v>3100193.06347597</v>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3100193.0634759702</v>
       </c>
       <c r="B13" t="s">
         <v>145</v>
@@ -2652,59 +2435,31 @@
       <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
         <v>147</v>
       </c>
-      <c r="I13" t="s"/>
       <c r="J13" t="s">
         <v>148</v>
       </c>
       <c r="K13" t="s">
         <v>149</v>
       </c>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
       <c r="Y13" t="s">
         <v>150</v>
       </c>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
       <c r="AD13" t="s">
         <v>151</v>
       </c>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
       <c r="AG13" t="s">
         <v>152</v>
       </c>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
       <c r="AK13" t="s">
         <v>153</v>
       </c>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-    </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="n">
-        <v>3080940.90832563</v>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3080940.9083256298</v>
       </c>
       <c r="B14" t="s">
         <v>154</v>
@@ -2718,57 +2473,28 @@
       <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>156</v>
       </c>
-      <c r="I14" t="s"/>
       <c r="J14" t="s">
         <v>148</v>
       </c>
       <c r="K14" t="s">
         <v>157</v>
       </c>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
       <c r="V14" t="s">
         <v>158</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
       <c r="AD14" t="s">
         <v>159</v>
       </c>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
       <c r="AG14" t="s">
         <v>160</v>
       </c>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="n">
-        <v>3038137.315596925</v>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3038137.3155969251</v>
       </c>
       <c r="B15" t="s">
         <v>161</v>
@@ -2782,10 +2508,6 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
       <c r="J15" t="s">
         <v>163</v>
       </c>
@@ -2795,48 +2517,25 @@
       <c r="L15" t="s">
         <v>49</v>
       </c>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
       <c r="Y15" t="s">
         <v>164</v>
       </c>
-      <c r="Z15" t="s"/>
       <c r="AA15" t="s">
         <v>165</v>
       </c>
       <c r="AB15" t="s">
         <v>166</v>
       </c>
-      <c r="AC15" t="s"/>
       <c r="AD15" t="s">
         <v>167</v>
       </c>
-      <c r="AE15" t="s"/>
-      <c r="AF15" t="s"/>
       <c r="AG15" t="s">
         <v>168</v>
       </c>
-      <c r="AH15" t="s"/>
-      <c r="AI15" t="s"/>
-      <c r="AJ15" t="s"/>
-      <c r="AK15" t="s"/>
-      <c r="AL15" t="s"/>
-      <c r="AM15" t="s"/>
-      <c r="AN15" t="s"/>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="n">
-        <v>2384400.454571661</v>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2384400.4545716611</v>
       </c>
       <c r="B16" t="s">
         <v>169</v>
@@ -2850,59 +2549,31 @@
       <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
       <c r="K16" t="s">
         <v>88</v>
       </c>
       <c r="L16" t="s">
         <v>49</v>
       </c>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
       <c r="T16" t="s">
         <v>171</v>
       </c>
-      <c r="U16" t="s"/>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
-      <c r="Z16" t="s"/>
       <c r="AA16" t="s">
         <v>172</v>
       </c>
       <c r="AB16" t="s">
         <v>173</v>
       </c>
-      <c r="AC16" t="s"/>
       <c r="AD16" t="s">
         <v>174</v>
       </c>
-      <c r="AE16" t="s"/>
-      <c r="AF16" t="s"/>
       <c r="AG16" t="s">
         <v>175</v>
       </c>
-      <c r="AH16" t="s"/>
-      <c r="AI16" t="s"/>
-      <c r="AJ16" t="s"/>
-      <c r="AK16" t="s"/>
-      <c r="AL16" t="s"/>
-      <c r="AM16" t="s"/>
-      <c r="AN16" t="s"/>
-    </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="n">
-        <v>2325028.28270713</v>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2325028.2827071301</v>
       </c>
       <c r="B17" t="s">
         <v>176</v>
@@ -2916,14 +2587,12 @@
       <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" t="s"/>
       <c r="G17" t="s">
         <v>178</v>
       </c>
       <c r="H17" t="s">
         <v>179</v>
       </c>
-      <c r="I17" t="s"/>
       <c r="J17" t="s">
         <v>65</v>
       </c>
@@ -2933,27 +2602,12 @@
       <c r="L17" t="s">
         <v>49</v>
       </c>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
       <c r="T17" t="s">
         <v>181</v>
       </c>
-      <c r="U17" t="s"/>
-      <c r="V17" t="s"/>
       <c r="W17" t="s">
         <v>182</v>
       </c>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
-      <c r="Z17" t="s"/>
-      <c r="AA17" t="s"/>
-      <c r="AB17" t="s"/>
-      <c r="AC17" t="s"/>
       <c r="AD17" t="s">
         <v>183</v>
       </c>
@@ -2966,17 +2620,10 @@
       <c r="AG17" t="s">
         <v>185</v>
       </c>
-      <c r="AH17" t="s"/>
-      <c r="AI17" t="s"/>
-      <c r="AJ17" t="s"/>
-      <c r="AK17" t="s"/>
-      <c r="AL17" t="s"/>
-      <c r="AM17" t="s"/>
-      <c r="AN17" t="s"/>
-    </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="n">
-        <v>2308989.709155738</v>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2308989.7091557379</v>
       </c>
       <c r="B18" t="s">
         <v>186</v>
@@ -2999,60 +2646,37 @@
       <c r="H18" t="s">
         <v>189</v>
       </c>
-      <c r="I18" t="s"/>
       <c r="J18" t="s">
         <v>65</v>
       </c>
-      <c r="K18" t="s"/>
       <c r="L18" t="s">
         <v>190</v>
       </c>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
-      <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
       <c r="V18" t="s">
         <v>89</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
-      <c r="Z18" t="s"/>
       <c r="AA18" t="s">
         <v>191</v>
       </c>
       <c r="AB18" t="s">
         <v>192</v>
       </c>
-      <c r="AC18" t="s"/>
       <c r="AD18" t="s">
         <v>193</v>
       </c>
       <c r="AE18" t="s">
         <v>194</v>
       </c>
-      <c r="AF18" t="s"/>
       <c r="AG18" t="s">
         <v>168</v>
       </c>
-      <c r="AH18" t="s"/>
-      <c r="AI18" t="s"/>
-      <c r="AJ18" t="s"/>
-      <c r="AK18" t="s"/>
-      <c r="AL18" t="s"/>
       <c r="AM18" t="s">
         <v>195</v>
       </c>
-      <c r="AN18" t="s"/>
-    </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="n">
-        <v>2292362.950479463</v>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2292362.9504794632</v>
       </c>
       <c r="B19" t="s">
         <v>196</v>
@@ -3072,63 +2696,40 @@
       <c r="G19" t="s">
         <v>199</v>
       </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
       <c r="T19" t="s">
         <v>200</v>
       </c>
-      <c r="U19" t="s"/>
-      <c r="V19" t="s"/>
       <c r="W19" t="s">
         <v>201</v>
       </c>
-      <c r="X19" t="s"/>
       <c r="Y19" t="s">
         <v>132</v>
       </c>
-      <c r="Z19" t="s"/>
       <c r="AA19" t="s">
         <v>202</v>
       </c>
       <c r="AB19" t="s">
         <v>203</v>
       </c>
-      <c r="AC19" t="s"/>
       <c r="AD19" t="s">
         <v>204</v>
       </c>
-      <c r="AE19" t="s"/>
       <c r="AF19" t="s">
         <v>137</v>
       </c>
       <c r="AG19" t="s">
         <v>138</v>
       </c>
-      <c r="AH19" t="s"/>
-      <c r="AI19" t="s"/>
       <c r="AJ19" t="s">
         <v>205</v>
       </c>
-      <c r="AK19" t="s"/>
-      <c r="AL19" t="s"/>
       <c r="AM19" t="s">
         <v>206</v>
       </c>
-      <c r="AN19" t="s"/>
-    </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="n">
-        <v>2238489.000390458</v>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2238489.0003904579</v>
       </c>
       <c r="B20" t="s">
         <v>207</v>
@@ -3142,65 +2743,40 @@
       <c r="E20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>209</v>
       </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
-      <c r="V20" t="s"/>
       <c r="W20" t="s">
         <v>201</v>
       </c>
-      <c r="X20" t="s"/>
       <c r="Y20" t="s">
         <v>132</v>
       </c>
-      <c r="Z20" t="s"/>
       <c r="AA20" t="s">
         <v>210</v>
       </c>
       <c r="AB20" t="s">
         <v>134</v>
       </c>
-      <c r="AC20" t="s"/>
       <c r="AD20" t="s">
         <v>211</v>
       </c>
-      <c r="AE20" t="s"/>
       <c r="AF20" t="s">
         <v>212</v>
       </c>
       <c r="AG20" t="s">
         <v>138</v>
       </c>
-      <c r="AH20" t="s"/>
-      <c r="AI20" t="s"/>
       <c r="AJ20" t="s">
         <v>213</v>
       </c>
-      <c r="AK20" t="s"/>
-      <c r="AL20" t="s"/>
       <c r="AM20" t="s">
         <v>206</v>
       </c>
-      <c r="AN20" t="s"/>
-    </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="n">
-        <v>2092004.646536881</v>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2092004.6465368811</v>
       </c>
       <c r="B21" t="s">
         <v>214</v>
@@ -3214,59 +2790,31 @@
       <c r="E21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
       <c r="K21" t="s">
         <v>216</v>
       </c>
       <c r="L21" t="s">
         <v>49</v>
       </c>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="s"/>
       <c r="W21" t="s">
         <v>217</v>
       </c>
-      <c r="X21" t="s"/>
       <c r="Y21" t="s">
         <v>124</v>
       </c>
-      <c r="Z21" t="s"/>
-      <c r="AA21" t="s"/>
-      <c r="AB21" t="s"/>
       <c r="AC21" t="s">
         <v>218</v>
       </c>
       <c r="AD21" t="s">
         <v>219</v>
       </c>
-      <c r="AE21" t="s"/>
-      <c r="AF21" t="s"/>
       <c r="AG21" t="s">
         <v>112</v>
       </c>
-      <c r="AH21" t="s"/>
-      <c r="AI21" t="s"/>
-      <c r="AJ21" t="s"/>
-      <c r="AK21" t="s"/>
-      <c r="AL21" t="s"/>
-      <c r="AM21" t="s"/>
-      <c r="AN21" t="s"/>
-    </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="n">
-        <v>2010005.326087443</v>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2010005.3260874429</v>
       </c>
       <c r="B22" t="s">
         <v>220</v>
@@ -3280,12 +2828,9 @@
       <c r="E22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s"/>
       <c r="J22" t="s">
         <v>147</v>
       </c>
@@ -3295,45 +2840,21 @@
       <c r="L22" t="s">
         <v>49</v>
       </c>
-      <c r="M22" t="s"/>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
-      <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
-      <c r="V22" t="s"/>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
       <c r="Y22" t="s">
         <v>223</v>
       </c>
-      <c r="Z22" t="s"/>
-      <c r="AA22" t="s"/>
-      <c r="AB22" t="s"/>
-      <c r="AC22" t="s"/>
       <c r="AD22" t="s">
         <v>224</v>
       </c>
-      <c r="AE22" t="s"/>
       <c r="AF22" t="s">
         <v>225</v>
       </c>
       <c r="AG22" t="s">
         <v>168</v>
       </c>
-      <c r="AH22" t="s"/>
-      <c r="AI22" t="s"/>
-      <c r="AJ22" t="s"/>
-      <c r="AK22" t="s"/>
-      <c r="AL22" t="s"/>
-      <c r="AM22" t="s"/>
-      <c r="AN22" t="s"/>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="n">
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1932801.810941275</v>
       </c>
       <c r="B23" t="s">
@@ -3348,53 +2869,22 @@
       <c r="E23" t="s">
         <v>44</v>
       </c>
-      <c r="F23" t="s"/>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
       <c r="K23" t="s">
         <v>157</v>
       </c>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
-      <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
-      <c r="V23" t="s"/>
       <c r="W23" t="s">
         <v>228</v>
       </c>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
-      <c r="Z23" t="s"/>
-      <c r="AA23" t="s"/>
-      <c r="AB23" t="s"/>
-      <c r="AC23" t="s"/>
       <c r="AD23" t="s">
         <v>229</v>
       </c>
-      <c r="AE23" t="s"/>
-      <c r="AF23" t="s"/>
       <c r="AG23" t="s">
         <v>160</v>
       </c>
-      <c r="AH23" t="s"/>
-      <c r="AI23" t="s"/>
-      <c r="AJ23" t="s"/>
-      <c r="AK23" t="s"/>
-      <c r="AL23" t="s"/>
-      <c r="AM23" t="s"/>
-      <c r="AN23" t="s"/>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="n">
-        <v>1925115.851121771</v>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1925115.8511217709</v>
       </c>
       <c r="B24" t="s">
         <v>230</v>
@@ -3408,12 +2898,9 @@
       <c r="E24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>188</v>
       </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s"/>
       <c r="J24" t="s">
         <v>147</v>
       </c>
@@ -3423,46 +2910,22 @@
       <c r="L24" t="s">
         <v>49</v>
       </c>
-      <c r="M24" t="s"/>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
-      <c r="V24" t="s"/>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
       <c r="Y24" t="s">
         <v>223</v>
       </c>
-      <c r="Z24" t="s"/>
-      <c r="AA24" t="s"/>
-      <c r="AB24" t="s"/>
-      <c r="AC24" t="s"/>
       <c r="AD24" t="s">
         <v>232</v>
       </c>
-      <c r="AE24" t="s"/>
       <c r="AF24" t="s">
         <v>233</v>
       </c>
       <c r="AG24" t="s">
         <v>234</v>
       </c>
-      <c r="AH24" t="s"/>
-      <c r="AI24" t="s"/>
-      <c r="AJ24" t="s"/>
-      <c r="AK24" t="s"/>
-      <c r="AL24" t="s"/>
-      <c r="AM24" t="s"/>
-      <c r="AN24" t="s"/>
-    </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="n">
-        <v>1798779.206015441</v>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1798779.2060154411</v>
       </c>
       <c r="B25" t="s">
         <v>235</v>
@@ -3476,9 +2939,6 @@
       <c r="E25" t="s">
         <v>44</v>
       </c>
-      <c r="F25" t="s"/>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s"/>
       <c r="I25" t="s">
         <v>64</v>
       </c>
@@ -3488,45 +2948,19 @@
       <c r="K25" t="s">
         <v>98</v>
       </c>
-      <c r="L25" t="s"/>
-      <c r="M25" t="s"/>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="s"/>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
       <c r="Y25" t="s">
         <v>239</v>
       </c>
-      <c r="Z25" t="s"/>
-      <c r="AA25" t="s"/>
-      <c r="AB25" t="s"/>
-      <c r="AC25" t="s"/>
       <c r="AD25" t="s">
         <v>240</v>
       </c>
-      <c r="AE25" t="s"/>
-      <c r="AF25" t="s"/>
       <c r="AG25" t="s">
         <v>119</v>
       </c>
-      <c r="AH25" t="s"/>
-      <c r="AI25" t="s"/>
-      <c r="AJ25" t="s"/>
-      <c r="AK25" t="s"/>
-      <c r="AL25" t="s"/>
-      <c r="AM25" t="s"/>
-      <c r="AN25" t="s"/>
-    </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="n">
-        <v>1798779.206015441</v>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1798779.2060154411</v>
       </c>
       <c r="B26" t="s">
         <v>241</v>
@@ -3540,9 +2974,6 @@
       <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" t="s"/>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s"/>
       <c r="I26" t="s">
         <v>64</v>
       </c>
@@ -3552,44 +2983,18 @@
       <c r="K26" t="s">
         <v>98</v>
       </c>
-      <c r="L26" t="s"/>
-      <c r="M26" t="s"/>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
-      <c r="V26" t="s"/>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
       <c r="Y26" t="s">
         <v>243</v>
       </c>
-      <c r="Z26" t="s"/>
-      <c r="AA26" t="s"/>
-      <c r="AB26" t="s"/>
-      <c r="AC26" t="s"/>
       <c r="AD26" t="s">
         <v>244</v>
       </c>
-      <c r="AE26" t="s"/>
-      <c r="AF26" t="s"/>
       <c r="AG26" t="s">
         <v>119</v>
       </c>
-      <c r="AH26" t="s"/>
-      <c r="AI26" t="s"/>
-      <c r="AJ26" t="s"/>
-      <c r="AK26" t="s"/>
-      <c r="AL26" t="s"/>
-      <c r="AM26" t="s"/>
-      <c r="AN26" t="s"/>
-    </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="n">
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>1761278.063122509</v>
       </c>
       <c r="B27" t="s">
@@ -3604,53 +3009,22 @@
       <c r="E27" t="s">
         <v>44</v>
       </c>
-      <c r="F27" t="s"/>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s"/>
-      <c r="J27" t="s"/>
       <c r="K27" t="s">
         <v>216</v>
       </c>
       <c r="L27" t="s">
         <v>108</v>
       </c>
-      <c r="M27" t="s"/>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
-      <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
-      <c r="V27" t="s"/>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
       <c r="Y27" t="s">
         <v>124</v>
       </c>
-      <c r="Z27" t="s"/>
-      <c r="AA27" t="s"/>
-      <c r="AB27" t="s"/>
-      <c r="AC27" t="s"/>
       <c r="AD27" t="s">
         <v>247</v>
       </c>
-      <c r="AE27" t="s"/>
-      <c r="AF27" t="s"/>
-      <c r="AG27" t="s"/>
-      <c r="AH27" t="s"/>
-      <c r="AI27" t="s"/>
-      <c r="AJ27" t="s"/>
-      <c r="AK27" t="s"/>
-      <c r="AL27" t="s"/>
-      <c r="AM27" t="s"/>
-      <c r="AN27" t="s"/>
-    </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="n">
-        <v>1611154.537544841</v>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1611154.5375448409</v>
       </c>
       <c r="B28" t="s">
         <v>248</v>
@@ -3664,14 +3038,12 @@
       <c r="E28" t="s">
         <v>44</v>
       </c>
-      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>188</v>
       </c>
       <c r="H28" t="s">
         <v>250</v>
       </c>
-      <c r="I28" t="s"/>
       <c r="J28" t="s">
         <v>65</v>
       </c>
@@ -3681,48 +3053,25 @@
       <c r="L28" t="s">
         <v>251</v>
       </c>
-      <c r="M28" t="s"/>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
       <c r="T28" t="s">
         <v>252</v>
       </c>
-      <c r="U28" t="s"/>
-      <c r="V28" t="s"/>
-      <c r="W28" t="s"/>
       <c r="X28" t="s">
         <v>253</v>
       </c>
       <c r="Y28" t="s">
         <v>254</v>
       </c>
-      <c r="Z28" t="s"/>
-      <c r="AA28" t="s"/>
-      <c r="AB28" t="s"/>
-      <c r="AC28" t="s"/>
       <c r="AD28" t="s">
         <v>255</v>
       </c>
-      <c r="AE28" t="s"/>
-      <c r="AF28" t="s"/>
       <c r="AG28" t="s">
         <v>256</v>
       </c>
-      <c r="AH28" t="s"/>
-      <c r="AI28" t="s"/>
-      <c r="AJ28" t="s"/>
-      <c r="AK28" t="s"/>
-      <c r="AL28" t="s"/>
-      <c r="AM28" t="s"/>
-      <c r="AN28" t="s"/>
-    </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="n">
-        <v>1522558.450095448</v>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1522558.4500954479</v>
       </c>
       <c r="B29" t="s">
         <v>257</v>
@@ -3736,14 +3085,12 @@
       <c r="E29" t="s">
         <v>44</v>
       </c>
-      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>188</v>
       </c>
       <c r="H29" t="s">
         <v>250</v>
       </c>
-      <c r="I29" t="s"/>
       <c r="J29" t="s">
         <v>65</v>
       </c>
@@ -3753,45 +3100,21 @@
       <c r="L29" t="s">
         <v>251</v>
       </c>
-      <c r="M29" t="s"/>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
-      <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
-      <c r="V29" t="s"/>
-      <c r="W29" t="s"/>
       <c r="X29" t="s">
         <v>253</v>
       </c>
       <c r="Y29" t="s">
         <v>254</v>
       </c>
-      <c r="Z29" t="s"/>
-      <c r="AA29" t="s"/>
-      <c r="AB29" t="s"/>
-      <c r="AC29" t="s"/>
       <c r="AD29" t="s">
         <v>259</v>
       </c>
-      <c r="AE29" t="s"/>
-      <c r="AF29" t="s"/>
       <c r="AG29" t="s">
         <v>256</v>
       </c>
-      <c r="AH29" t="s"/>
-      <c r="AI29" t="s"/>
-      <c r="AJ29" t="s"/>
-      <c r="AK29" t="s"/>
-      <c r="AL29" t="s"/>
-      <c r="AM29" t="s"/>
-      <c r="AN29" t="s"/>
-    </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="n">
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>1512337.453744323</v>
       </c>
       <c r="B30" t="s">
@@ -3806,54 +3129,24 @@
       <c r="E30" t="s">
         <v>44</v>
       </c>
-      <c r="F30" t="s"/>
-      <c r="G30" t="s"/>
       <c r="H30" t="s">
         <v>262</v>
       </c>
-      <c r="I30" t="s"/>
-      <c r="J30" t="s"/>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="s"/>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
       <c r="R30" t="s">
         <v>263</v>
       </c>
-      <c r="S30" t="s"/>
       <c r="T30" t="s">
         <v>264</v>
       </c>
-      <c r="U30" t="s"/>
-      <c r="V30" t="s"/>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
       <c r="Y30" t="s">
         <v>54</v>
       </c>
-      <c r="Z30" t="s"/>
-      <c r="AA30" t="s"/>
-      <c r="AB30" t="s"/>
-      <c r="AC30" t="s"/>
       <c r="AD30" t="s">
         <v>57</v>
       </c>
-      <c r="AE30" t="s"/>
-      <c r="AF30" t="s"/>
-      <c r="AG30" t="s"/>
-      <c r="AH30" t="s"/>
-      <c r="AI30" t="s"/>
-      <c r="AJ30" t="s"/>
-      <c r="AK30" t="s"/>
-      <c r="AL30" t="s"/>
-      <c r="AM30" t="s"/>
-      <c r="AN30" t="s"/>
-    </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="n">
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>1422898.296463599</v>
       </c>
       <c r="B31" t="s">
@@ -3868,14 +3161,12 @@
       <c r="E31" t="s">
         <v>44</v>
       </c>
-      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>188</v>
       </c>
       <c r="H31" t="s">
         <v>179</v>
       </c>
-      <c r="I31" t="s"/>
       <c r="J31" t="s">
         <v>65</v>
       </c>
@@ -3885,48 +3176,25 @@
       <c r="L31" t="s">
         <v>49</v>
       </c>
-      <c r="M31" t="s"/>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
-      <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
-      <c r="V31" t="s"/>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
       <c r="Y31" t="s">
         <v>150</v>
       </c>
-      <c r="Z31" t="s"/>
       <c r="AA31" t="s">
         <v>267</v>
       </c>
       <c r="AB31" t="s">
         <v>268</v>
       </c>
-      <c r="AC31" t="s"/>
       <c r="AD31" t="s">
         <v>269</v>
       </c>
-      <c r="AE31" t="s"/>
-      <c r="AF31" t="s"/>
       <c r="AG31" t="s">
         <v>256</v>
       </c>
-      <c r="AH31" t="s"/>
-      <c r="AI31" t="s"/>
-      <c r="AJ31" t="s"/>
-      <c r="AK31" t="s"/>
-      <c r="AL31" t="s"/>
-      <c r="AM31" t="s"/>
-      <c r="AN31" t="s"/>
-    </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="n">
-        <v>1269472.607927665</v>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1269472.6079276651</v>
       </c>
       <c r="B32" t="s">
         <v>270</v>
@@ -3940,63 +3208,37 @@
       <c r="E32" t="s">
         <v>44</v>
       </c>
-      <c r="F32" t="s"/>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s"/>
-      <c r="J32" t="s"/>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
-      <c r="M32" t="s"/>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
       <c r="T32" t="s">
         <v>272</v>
       </c>
-      <c r="U32" t="s"/>
-      <c r="V32" t="s"/>
       <c r="W32" t="s">
         <v>201</v>
       </c>
-      <c r="X32" t="s"/>
       <c r="Y32" t="s">
         <v>132</v>
       </c>
-      <c r="Z32" t="s"/>
       <c r="AA32" t="s">
         <v>273</v>
       </c>
       <c r="AB32" t="s">
         <v>274</v>
       </c>
-      <c r="AC32" t="s"/>
       <c r="AD32" t="s">
         <v>275</v>
       </c>
-      <c r="AE32" t="s"/>
       <c r="AF32" t="s">
         <v>276</v>
       </c>
       <c r="AG32" t="s">
         <v>138</v>
       </c>
-      <c r="AH32" t="s"/>
-      <c r="AI32" t="s"/>
-      <c r="AJ32" t="s"/>
-      <c r="AK32" t="s"/>
-      <c r="AL32" t="s"/>
       <c r="AM32" t="s">
         <v>277</v>
       </c>
-      <c r="AN32" t="s"/>
-    </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="n">
-        <v>1261800.984692641</v>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1261800.9846926411</v>
       </c>
       <c r="B33" t="s">
         <v>278</v>
@@ -4010,12 +3252,9 @@
       <c r="E33" t="s">
         <v>44</v>
       </c>
-      <c r="F33" t="s"/>
-      <c r="G33" t="s"/>
       <c r="H33" t="s">
         <v>179</v>
       </c>
-      <c r="I33" t="s"/>
       <c r="J33" t="s">
         <v>148</v>
       </c>
@@ -4025,44 +3264,19 @@
       <c r="L33" t="s">
         <v>49</v>
       </c>
-      <c r="M33" t="s"/>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
-      <c r="V33" t="s"/>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
       <c r="Y33" t="s">
         <v>223</v>
       </c>
-      <c r="Z33" t="s"/>
-      <c r="AA33" t="s"/>
-      <c r="AB33" t="s"/>
-      <c r="AC33" t="s"/>
       <c r="AD33" t="s">
         <v>280</v>
       </c>
-      <c r="AE33" t="s"/>
-      <c r="AF33" t="s"/>
       <c r="AG33" t="s">
         <v>152</v>
       </c>
-      <c r="AH33" t="s"/>
-      <c r="AI33" t="s"/>
-      <c r="AJ33" t="s"/>
-      <c r="AK33" t="s"/>
-      <c r="AL33" t="s"/>
-      <c r="AM33" t="s"/>
-      <c r="AN33" t="s"/>
-    </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="n">
-        <v>1209609.611486721</v>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1209609.6114867211</v>
       </c>
       <c r="B34" t="s">
         <v>281</v>
@@ -4076,61 +3290,34 @@
       <c r="E34" t="s">
         <v>44</v>
       </c>
-      <c r="F34" t="s"/>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s"/>
-      <c r="J34" t="s"/>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
-      <c r="M34" t="s"/>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
-      <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
-      <c r="V34" t="s"/>
       <c r="W34" t="s">
         <v>283</v>
       </c>
-      <c r="X34" t="s"/>
       <c r="Y34" t="s">
         <v>132</v>
       </c>
-      <c r="Z34" t="s"/>
       <c r="AA34" t="s">
         <v>284</v>
       </c>
       <c r="AB34" t="s">
         <v>285</v>
       </c>
-      <c r="AC34" t="s"/>
       <c r="AD34" t="s">
         <v>286</v>
       </c>
-      <c r="AE34" t="s"/>
       <c r="AF34" t="s">
         <v>276</v>
       </c>
       <c r="AG34" t="s">
         <v>138</v>
       </c>
-      <c r="AH34" t="s"/>
-      <c r="AI34" t="s"/>
-      <c r="AJ34" t="s"/>
-      <c r="AK34" t="s"/>
-      <c r="AL34" t="s"/>
       <c r="AM34" t="s">
         <v>195</v>
       </c>
-      <c r="AN34" t="s"/>
-    </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="n">
-        <v>1156175.56331333</v>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1156175.5633133301</v>
       </c>
       <c r="B35" t="s">
         <v>287</v>
@@ -4144,57 +3331,28 @@
       <c r="E35" t="s">
         <v>44</v>
       </c>
-      <c r="F35" t="s"/>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s"/>
       <c r="J35" t="s">
         <v>65</v>
       </c>
       <c r="K35" t="s">
         <v>222</v>
       </c>
-      <c r="L35" t="s"/>
-      <c r="M35" t="s"/>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
-      <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
-      <c r="V35" t="s"/>
       <c r="W35" t="s">
         <v>289</v>
       </c>
-      <c r="X35" t="s"/>
       <c r="Y35" t="s">
         <v>223</v>
       </c>
-      <c r="Z35" t="s"/>
-      <c r="AA35" t="s"/>
-      <c r="AB35" t="s"/>
-      <c r="AC35" t="s"/>
       <c r="AD35" t="s">
         <v>290</v>
       </c>
-      <c r="AE35" t="s"/>
-      <c r="AF35" t="s"/>
       <c r="AG35" t="s">
         <v>291</v>
       </c>
-      <c r="AH35" t="s"/>
-      <c r="AI35" t="s"/>
-      <c r="AJ35" t="s"/>
-      <c r="AK35" t="s"/>
-      <c r="AL35" t="s"/>
-      <c r="AM35" t="s"/>
-      <c r="AN35" t="s"/>
-    </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="n">
-        <v>1149769.725118339</v>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1149769.7251183391</v>
       </c>
       <c r="B36" t="s">
         <v>292</v>
@@ -4208,51 +3366,19 @@
       <c r="E36" t="s">
         <v>44</v>
       </c>
-      <c r="F36" t="s"/>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s"/>
       <c r="J36" t="s">
         <v>294</v>
       </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
       <c r="T36" t="s">
         <v>295</v>
       </c>
-      <c r="U36" t="s"/>
-      <c r="V36" t="s"/>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
-      <c r="Z36" t="s"/>
-      <c r="AA36" t="s"/>
-      <c r="AB36" t="s"/>
-      <c r="AC36" t="s"/>
       <c r="AD36" t="s">
         <v>296</v>
       </c>
-      <c r="AE36" t="s"/>
-      <c r="AF36" t="s"/>
-      <c r="AG36" t="s"/>
-      <c r="AH36" t="s"/>
-      <c r="AI36" t="s"/>
-      <c r="AJ36" t="s"/>
-      <c r="AK36" t="s"/>
-      <c r="AL36" t="s"/>
-      <c r="AM36" t="s"/>
-      <c r="AN36" t="s"/>
-    </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="n">
-        <v>1070892.940453051</v>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1070892.9404530509</v>
       </c>
       <c r="B37" t="s">
         <v>297</v>
@@ -4266,58 +3392,30 @@
       <c r="E37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" t="s"/>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s"/>
       <c r="J37" t="s">
         <v>65</v>
       </c>
       <c r="K37" t="s">
         <v>222</v>
       </c>
-      <c r="L37" t="s"/>
-      <c r="M37" t="s"/>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
-      <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
-      <c r="V37" t="s"/>
       <c r="W37" t="s">
         <v>289</v>
       </c>
-      <c r="X37" t="s"/>
       <c r="Y37" t="s">
         <v>223</v>
       </c>
-      <c r="Z37" t="s"/>
-      <c r="AA37" t="s"/>
-      <c r="AB37" t="s"/>
-      <c r="AC37" t="s"/>
       <c r="AD37" t="s">
         <v>299</v>
       </c>
-      <c r="AE37" t="s"/>
-      <c r="AF37" t="s"/>
       <c r="AG37" t="s">
         <v>256</v>
       </c>
-      <c r="AH37" t="s"/>
-      <c r="AI37" t="s"/>
-      <c r="AJ37" t="s"/>
       <c r="AK37" t="s">
         <v>153</v>
       </c>
-      <c r="AL37" t="s"/>
-      <c r="AM37" t="s"/>
-      <c r="AN37" t="s"/>
-    </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="n">
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>1017292.887399325</v>
       </c>
       <c r="B38" t="s">
@@ -4332,59 +3430,31 @@
       <c r="E38" t="s">
         <v>44</v>
       </c>
-      <c r="F38" t="s"/>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s"/>
       <c r="I38" t="s">
         <v>64</v>
       </c>
-      <c r="J38" t="s"/>
       <c r="K38" t="s">
         <v>180</v>
       </c>
-      <c r="L38" t="s"/>
-      <c r="M38" t="s"/>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
       <c r="T38" t="s">
         <v>302</v>
       </c>
-      <c r="U38" t="s"/>
-      <c r="V38" t="s"/>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
       <c r="Y38" t="s">
         <v>124</v>
       </c>
-      <c r="Z38" t="s"/>
-      <c r="AA38" t="s"/>
-      <c r="AB38" t="s"/>
       <c r="AC38" t="s">
         <v>303</v>
       </c>
       <c r="AD38" t="s">
         <v>304</v>
       </c>
-      <c r="AE38" t="s"/>
-      <c r="AF38" t="s"/>
       <c r="AG38" t="s">
         <v>305</v>
       </c>
-      <c r="AH38" t="s"/>
-      <c r="AI38" t="s"/>
-      <c r="AJ38" t="s"/>
-      <c r="AK38" t="s"/>
-      <c r="AL38" t="s"/>
-      <c r="AM38" t="s"/>
-      <c r="AN38" t="s"/>
-    </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="n">
-        <v>855931.3403121298</v>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>855931.34031212982</v>
       </c>
       <c r="B39" t="s">
         <v>306</v>
@@ -4398,12 +3468,9 @@
       <c r="E39" t="s">
         <v>44</v>
       </c>
-      <c r="F39" t="s"/>
       <c r="G39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s"/>
       <c r="J39" t="s">
         <v>65</v>
       </c>
@@ -4413,48 +3480,25 @@
       <c r="L39" t="s">
         <v>49</v>
       </c>
-      <c r="M39" t="s"/>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
       <c r="T39" t="s">
         <v>252</v>
       </c>
-      <c r="U39" t="s"/>
-      <c r="V39" t="s"/>
-      <c r="W39" t="s"/>
       <c r="X39" t="s">
         <v>253</v>
       </c>
       <c r="Y39" t="s">
         <v>254</v>
       </c>
-      <c r="Z39" t="s"/>
-      <c r="AA39" t="s"/>
-      <c r="AB39" t="s"/>
-      <c r="AC39" t="s"/>
       <c r="AD39" t="s">
         <v>308</v>
       </c>
-      <c r="AE39" t="s"/>
-      <c r="AF39" t="s"/>
       <c r="AG39" t="s">
         <v>256</v>
       </c>
-      <c r="AH39" t="s"/>
-      <c r="AI39" t="s"/>
-      <c r="AJ39" t="s"/>
-      <c r="AK39" t="s"/>
-      <c r="AL39" t="s"/>
-      <c r="AM39" t="s"/>
-      <c r="AN39" t="s"/>
-    </row>
-    <row r="40" spans="1:40">
-      <c r="A40" t="n">
-        <v>838979.184223509</v>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>838979.18422350904</v>
       </c>
       <c r="B40" t="s">
         <v>309</v>
@@ -4468,55 +3512,25 @@
       <c r="E40" t="s">
         <v>44</v>
       </c>
-      <c r="F40" t="s"/>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s"/>
-      <c r="J40" t="s"/>
       <c r="K40" t="s">
         <v>180</v>
       </c>
-      <c r="L40" t="s"/>
-      <c r="M40" t="s"/>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
-      <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
-      <c r="V40" t="s"/>
       <c r="W40" t="s">
         <v>311</v>
       </c>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
-      <c r="Z40" t="s"/>
-      <c r="AA40" t="s"/>
-      <c r="AB40" t="s"/>
-      <c r="AC40" t="s"/>
       <c r="AD40" t="s">
         <v>312</v>
       </c>
-      <c r="AE40" t="s"/>
-      <c r="AF40" t="s"/>
       <c r="AG40" t="s">
         <v>119</v>
       </c>
-      <c r="AH40" t="s"/>
-      <c r="AI40" t="s"/>
-      <c r="AJ40" t="s"/>
       <c r="AK40" t="s">
         <v>59</v>
       </c>
-      <c r="AL40" t="s"/>
-      <c r="AM40" t="s"/>
-      <c r="AN40" t="s"/>
-    </row>
-    <row r="41" spans="1:40">
-      <c r="A41" t="n">
-        <v>767335.252862737</v>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>767335.25286273705</v>
       </c>
       <c r="B41" t="s">
         <v>313</v>
@@ -4530,12 +3544,9 @@
       <c r="E41" t="s">
         <v>44</v>
       </c>
-      <c r="F41" t="s"/>
       <c r="G41" t="s">
         <v>188</v>
       </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s"/>
       <c r="J41" t="s">
         <v>65</v>
       </c>
@@ -4545,46 +3556,22 @@
       <c r="L41" t="s">
         <v>49</v>
       </c>
-      <c r="M41" t="s"/>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
-      <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
-      <c r="V41" t="s"/>
-      <c r="W41" t="s"/>
       <c r="X41" t="s">
         <v>253</v>
       </c>
       <c r="Y41" t="s">
         <v>254</v>
       </c>
-      <c r="Z41" t="s"/>
-      <c r="AA41" t="s"/>
-      <c r="AB41" t="s"/>
-      <c r="AC41" t="s"/>
       <c r="AD41" t="s">
         <v>315</v>
       </c>
-      <c r="AE41" t="s"/>
-      <c r="AF41" t="s"/>
       <c r="AG41" t="s">
         <v>256</v>
       </c>
-      <c r="AH41" t="s"/>
-      <c r="AI41" t="s"/>
-      <c r="AJ41" t="s"/>
-      <c r="AK41" t="s"/>
-      <c r="AL41" t="s"/>
-      <c r="AM41" t="s"/>
-      <c r="AN41" t="s"/>
-    </row>
-    <row r="42" spans="1:40">
-      <c r="A42" t="n">
-        <v>743628.9094443441</v>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>743628.90944434411</v>
       </c>
       <c r="B42" t="s">
         <v>316</v>
@@ -4598,55 +3585,25 @@
       <c r="E42" t="s">
         <v>44</v>
       </c>
-      <c r="F42" t="s"/>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s"/>
       <c r="I42" t="s">
         <v>318</v>
       </c>
-      <c r="J42" t="s"/>
-      <c r="K42" t="s"/>
-      <c r="L42" t="s"/>
-      <c r="M42" t="s"/>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
       <c r="T42" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="U42" t="s"/>
-      <c r="V42" t="s"/>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
       <c r="Y42" t="s">
         <v>319</v>
       </c>
-      <c r="Z42" t="s"/>
-      <c r="AA42" t="s"/>
-      <c r="AB42" t="s"/>
-      <c r="AC42" t="s"/>
       <c r="AD42" t="s">
         <v>320</v>
       </c>
-      <c r="AE42" t="s"/>
-      <c r="AF42" t="s"/>
       <c r="AG42" t="s">
         <v>119</v>
       </c>
-      <c r="AH42" t="s"/>
-      <c r="AI42" t="s"/>
-      <c r="AJ42" t="s"/>
-      <c r="AK42" t="s"/>
-      <c r="AL42" t="s"/>
-      <c r="AM42" t="s"/>
-      <c r="AN42" t="s"/>
-    </row>
-    <row r="43" spans="1:40">
-      <c r="A43" t="n">
-        <v>670337.9981762894</v>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>670337.99817628937</v>
       </c>
       <c r="B43" t="s">
         <v>321</v>
@@ -4660,56 +3617,27 @@
       <c r="E43" t="s">
         <v>44</v>
       </c>
-      <c r="F43" t="s"/>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s"/>
-      <c r="J43" t="s"/>
-      <c r="K43" t="s"/>
       <c r="L43" t="s">
         <v>108</v>
       </c>
-      <c r="M43" t="s"/>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
       <c r="T43" t="s">
         <v>323</v>
       </c>
-      <c r="U43" t="s"/>
-      <c r="V43" t="s"/>
       <c r="W43" t="s">
         <v>324</v>
       </c>
-      <c r="X43" t="s"/>
       <c r="Y43" t="s">
         <v>124</v>
       </c>
-      <c r="Z43" t="s"/>
-      <c r="AA43" t="s"/>
-      <c r="AB43" t="s"/>
-      <c r="AC43" t="s"/>
       <c r="AD43" t="s">
         <v>325</v>
       </c>
-      <c r="AE43" t="s"/>
-      <c r="AF43" t="s"/>
       <c r="AG43" t="s">
         <v>112</v>
       </c>
-      <c r="AH43" t="s"/>
-      <c r="AI43" t="s"/>
-      <c r="AJ43" t="s"/>
-      <c r="AK43" t="s"/>
-      <c r="AL43" t="s"/>
-      <c r="AM43" t="s"/>
-      <c r="AN43" t="s"/>
-    </row>
-    <row r="44" spans="1:40">
-      <c r="A44" t="n">
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>654971.4134727217</v>
       </c>
       <c r="B44" t="s">
@@ -4724,55 +3652,25 @@
       <c r="E44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" t="s"/>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s"/>
-      <c r="J44" t="s"/>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
-      <c r="M44" t="s"/>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
       <c r="T44" t="s">
         <v>328</v>
       </c>
-      <c r="U44" t="s"/>
-      <c r="V44" t="s"/>
       <c r="W44" t="s">
         <v>329</v>
       </c>
-      <c r="X44" t="s"/>
       <c r="Y44" t="s">
         <v>330</v>
       </c>
-      <c r="Z44" t="s"/>
-      <c r="AA44" t="s"/>
-      <c r="AB44" t="s"/>
       <c r="AC44" t="s">
         <v>331</v>
       </c>
-      <c r="AD44" t="s"/>
-      <c r="AE44" t="s"/>
-      <c r="AF44" t="s"/>
       <c r="AG44" t="s">
         <v>168</v>
       </c>
-      <c r="AH44" t="s"/>
-      <c r="AI44" t="s"/>
-      <c r="AJ44" t="s"/>
-      <c r="AK44" t="s"/>
-      <c r="AL44" t="s"/>
-      <c r="AM44" t="s"/>
-      <c r="AN44" t="s"/>
-    </row>
-    <row r="45" spans="1:40">
-      <c r="A45" t="n">
-        <v>617767.945440297</v>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>617767.94544029702</v>
       </c>
       <c r="B45" t="s">
         <v>332</v>
@@ -4786,26 +3684,9 @@
       <c r="E45" t="s">
         <v>44</v>
       </c>
-      <c r="F45" t="s"/>
       <c r="G45" t="s">
         <v>335</v>
       </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s"/>
-      <c r="J45" t="s"/>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
-      <c r="M45" t="s"/>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
-      <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
-      <c r="V45" t="s"/>
-      <c r="W45" t="s"/>
       <c r="X45" t="s">
         <v>336</v>
       </c>
@@ -4815,30 +3696,19 @@
       <c r="Z45" t="s">
         <v>338</v>
       </c>
-      <c r="AA45" t="s"/>
-      <c r="AB45" t="s"/>
       <c r="AC45" t="s">
         <v>339</v>
       </c>
       <c r="AD45" t="s">
         <v>340</v>
       </c>
-      <c r="AE45" t="s"/>
-      <c r="AF45" t="s"/>
       <c r="AG45" t="s">
         <v>341</v>
       </c>
-      <c r="AH45" t="s"/>
-      <c r="AI45" t="s"/>
-      <c r="AJ45" t="s"/>
-      <c r="AK45" t="s"/>
-      <c r="AL45" t="s"/>
-      <c r="AM45" t="s"/>
-      <c r="AN45" t="s"/>
-    </row>
-    <row r="46" spans="1:40">
-      <c r="A46" t="n">
-        <v>617767.945440297</v>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>617767.94544029702</v>
       </c>
       <c r="B46" t="s">
         <v>342</v>
@@ -4852,26 +3722,9 @@
       <c r="E46" t="s">
         <v>44</v>
       </c>
-      <c r="F46" t="s"/>
       <c r="G46" t="s">
         <v>335</v>
       </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s"/>
-      <c r="J46" t="s"/>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
-      <c r="M46" t="s"/>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
-      <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
-      <c r="V46" t="s"/>
-      <c r="W46" t="s"/>
       <c r="X46" t="s">
         <v>336</v>
       </c>
@@ -4881,30 +3734,19 @@
       <c r="Z46" t="s">
         <v>345</v>
       </c>
-      <c r="AA46" t="s"/>
-      <c r="AB46" t="s"/>
       <c r="AC46" t="s">
         <v>339</v>
       </c>
       <c r="AD46" t="s">
         <v>346</v>
       </c>
-      <c r="AE46" t="s"/>
-      <c r="AF46" t="s"/>
       <c r="AG46" t="s">
         <v>341</v>
       </c>
-      <c r="AH46" t="s"/>
-      <c r="AI46" t="s"/>
-      <c r="AJ46" t="s"/>
-      <c r="AK46" t="s"/>
-      <c r="AL46" t="s"/>
-      <c r="AM46" t="s"/>
-      <c r="AN46" t="s"/>
-    </row>
-    <row r="47" spans="1:40">
-      <c r="A47" t="n">
-        <v>617767.945440297</v>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>617767.94544029702</v>
       </c>
       <c r="B47" t="s">
         <v>347</v>
@@ -4918,26 +3760,9 @@
       <c r="E47" t="s">
         <v>44</v>
       </c>
-      <c r="F47" t="s"/>
       <c r="G47" t="s">
         <v>335</v>
       </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s"/>
-      <c r="J47" t="s"/>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
-      <c r="M47" t="s"/>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
-      <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
-      <c r="V47" t="s"/>
-      <c r="W47" t="s"/>
       <c r="X47" t="s">
         <v>336</v>
       </c>
@@ -4947,30 +3772,19 @@
       <c r="Z47" t="s">
         <v>350</v>
       </c>
-      <c r="AA47" t="s"/>
-      <c r="AB47" t="s"/>
       <c r="AC47" t="s">
         <v>339</v>
       </c>
       <c r="AD47" t="s">
         <v>351</v>
       </c>
-      <c r="AE47" t="s"/>
-      <c r="AF47" t="s"/>
       <c r="AG47" t="s">
         <v>341</v>
       </c>
-      <c r="AH47" t="s"/>
-      <c r="AI47" t="s"/>
-      <c r="AJ47" t="s"/>
-      <c r="AK47" t="s"/>
-      <c r="AL47" t="s"/>
-      <c r="AM47" t="s"/>
-      <c r="AN47" t="s"/>
-    </row>
-    <row r="48" spans="1:40">
-      <c r="A48" t="n">
-        <v>535962.3365092565</v>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>535962.33650925651</v>
       </c>
       <c r="B48" t="s">
         <v>352</v>
@@ -4984,51 +3798,19 @@
       <c r="E48" t="s">
         <v>44</v>
       </c>
-      <c r="F48" t="s"/>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s"/>
       <c r="I48" t="s">
         <v>354</v>
       </c>
-      <c r="J48" t="s"/>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
-      <c r="M48" t="s"/>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
-      <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
-      <c r="V48" t="s"/>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
       <c r="Y48" t="s">
         <v>355</v>
       </c>
-      <c r="Z48" t="s"/>
-      <c r="AA48" t="s"/>
-      <c r="AB48" t="s"/>
-      <c r="AC48" t="s"/>
       <c r="AD48" t="s">
         <v>356</v>
       </c>
-      <c r="AE48" t="s"/>
-      <c r="AF48" t="s"/>
-      <c r="AG48" t="s"/>
-      <c r="AH48" t="s"/>
-      <c r="AI48" t="s"/>
-      <c r="AJ48" t="s"/>
-      <c r="AK48" t="s"/>
-      <c r="AL48" t="s"/>
-      <c r="AM48" t="s"/>
-      <c r="AN48" t="s"/>
-    </row>
-    <row r="49" spans="1:40">
-      <c r="A49" t="n">
-        <v>422165.6387114241</v>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>422165.63871142408</v>
       </c>
       <c r="B49" t="s">
         <v>357</v>
@@ -5042,51 +3824,19 @@
       <c r="E49" t="s">
         <v>44</v>
       </c>
-      <c r="F49" t="s"/>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s"/>
-      <c r="J49" t="s"/>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
-      <c r="M49" t="s"/>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
-      <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
-      <c r="V49" t="s"/>
       <c r="W49" t="s">
         <v>359</v>
       </c>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
-      <c r="Z49" t="s"/>
-      <c r="AA49" t="s"/>
-      <c r="AB49" t="s"/>
-      <c r="AC49" t="s"/>
       <c r="AD49" t="s">
         <v>360</v>
       </c>
-      <c r="AE49" t="s"/>
-      <c r="AF49" t="s"/>
       <c r="AG49" t="s">
         <v>305</v>
       </c>
-      <c r="AH49" t="s"/>
-      <c r="AI49" t="s"/>
-      <c r="AJ49" t="s"/>
-      <c r="AK49" t="s"/>
-      <c r="AL49" t="s"/>
-      <c r="AM49" t="s"/>
-      <c r="AN49" t="s"/>
-    </row>
-    <row r="50" spans="1:40">
-      <c r="A50" t="n">
-        <v>422165.6387114241</v>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>422165.63871142408</v>
       </c>
       <c r="B50" t="s">
         <v>361</v>
@@ -5100,51 +3850,19 @@
       <c r="E50" t="s">
         <v>44</v>
       </c>
-      <c r="F50" t="s"/>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s"/>
-      <c r="J50" t="s"/>
-      <c r="K50" t="s"/>
-      <c r="L50" t="s"/>
-      <c r="M50" t="s"/>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
-      <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
-      <c r="V50" t="s"/>
       <c r="W50" t="s">
         <v>363</v>
       </c>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
-      <c r="Z50" t="s"/>
-      <c r="AA50" t="s"/>
-      <c r="AB50" t="s"/>
-      <c r="AC50" t="s"/>
       <c r="AD50" t="s">
         <v>364</v>
       </c>
-      <c r="AE50" t="s"/>
-      <c r="AF50" t="s"/>
       <c r="AG50" t="s">
         <v>305</v>
       </c>
-      <c r="AH50" t="s"/>
-      <c r="AI50" t="s"/>
-      <c r="AJ50" t="s"/>
-      <c r="AK50" t="s"/>
-      <c r="AL50" t="s"/>
-      <c r="AM50" t="s"/>
-      <c r="AN50" t="s"/>
-    </row>
-    <row r="51" spans="1:40">
-      <c r="A51" t="n">
-        <v>418906.4812540977</v>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>418906.48125409771</v>
       </c>
       <c r="B51" t="s">
         <v>365</v>
@@ -5158,53 +3876,22 @@
       <c r="E51" t="s">
         <v>44</v>
       </c>
-      <c r="F51" t="s"/>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s"/>
       <c r="I51" t="s">
         <v>64</v>
       </c>
-      <c r="J51" t="s"/>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
-      <c r="M51" t="s"/>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
-      <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
-      <c r="V51" t="s"/>
       <c r="W51" t="s">
         <v>367</v>
       </c>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
-      <c r="Z51" t="s"/>
-      <c r="AA51" t="s"/>
-      <c r="AB51" t="s"/>
-      <c r="AC51" t="s"/>
       <c r="AD51" t="s">
         <v>368</v>
       </c>
-      <c r="AE51" t="s"/>
-      <c r="AF51" t="s"/>
       <c r="AG51" t="s">
         <v>112</v>
       </c>
-      <c r="AH51" t="s"/>
-      <c r="AI51" t="s"/>
-      <c r="AJ51" t="s"/>
-      <c r="AK51" t="s"/>
-      <c r="AL51" t="s"/>
-      <c r="AM51" t="s"/>
-      <c r="AN51" t="s"/>
-    </row>
-    <row r="52" spans="1:40">
-      <c r="A52" t="n">
-        <v>414961.5109782683</v>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>414961.51097826828</v>
       </c>
       <c r="B52" t="s">
         <v>369</v>
@@ -5218,53 +3905,22 @@
       <c r="E52" t="s">
         <v>44</v>
       </c>
-      <c r="F52" t="s"/>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s"/>
-      <c r="J52" t="s"/>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
-      <c r="M52" t="s"/>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
       <c r="T52" t="s">
         <v>371</v>
       </c>
-      <c r="U52" t="s"/>
-      <c r="V52" t="s"/>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
       <c r="Y52" t="s">
         <v>132</v>
       </c>
-      <c r="Z52" t="s"/>
-      <c r="AA52" t="s"/>
-      <c r="AB52" t="s"/>
-      <c r="AC52" t="s"/>
       <c r="AD52" t="s">
         <v>372</v>
       </c>
-      <c r="AE52" t="s"/>
-      <c r="AF52" t="s"/>
       <c r="AG52" t="s">
         <v>138</v>
       </c>
-      <c r="AH52" t="s"/>
-      <c r="AI52" t="s"/>
-      <c r="AJ52" t="s"/>
-      <c r="AK52" t="s"/>
-      <c r="AL52" t="s"/>
-      <c r="AM52" t="s"/>
-      <c r="AN52" t="s"/>
-    </row>
-    <row r="53" spans="1:40">
-      <c r="A53" t="n">
-        <v>414684.7362462042</v>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>414684.73624620418</v>
       </c>
       <c r="B53" t="s">
         <v>373</v>
@@ -5278,53 +3934,22 @@
       <c r="E53" t="s">
         <v>44</v>
       </c>
-      <c r="F53" t="s"/>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s"/>
       <c r="I53" t="s">
         <v>64</v>
       </c>
-      <c r="J53" t="s"/>
-      <c r="K53" t="s"/>
       <c r="L53" t="s">
         <v>375</v>
       </c>
-      <c r="M53" t="s"/>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
-      <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
-      <c r="V53" t="s"/>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
-      <c r="Z53" t="s"/>
-      <c r="AA53" t="s"/>
-      <c r="AB53" t="s"/>
-      <c r="AC53" t="s"/>
       <c r="AD53" t="s">
         <v>376</v>
       </c>
-      <c r="AE53" t="s"/>
-      <c r="AF53" t="s"/>
       <c r="AG53" t="s">
         <v>119</v>
       </c>
-      <c r="AH53" t="s"/>
-      <c r="AI53" t="s"/>
-      <c r="AJ53" t="s"/>
-      <c r="AK53" t="s"/>
-      <c r="AL53" t="s"/>
-      <c r="AM53" t="s"/>
-      <c r="AN53" t="s"/>
-    </row>
-    <row r="54" spans="1:40">
-      <c r="A54" t="n">
-        <v>382337.2036105351</v>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>382337.20361053513</v>
       </c>
       <c r="B54" t="s">
         <v>377</v>
@@ -5338,51 +3963,19 @@
       <c r="E54" t="s">
         <v>44</v>
       </c>
-      <c r="F54" t="s"/>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s"/>
       <c r="I54" t="s">
         <v>64</v>
       </c>
-      <c r="J54" t="s"/>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
-      <c r="M54" t="s"/>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
-      <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
-      <c r="V54" t="s"/>
       <c r="W54" t="s">
         <v>379</v>
       </c>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
-      <c r="Z54" t="s"/>
-      <c r="AA54" t="s"/>
-      <c r="AB54" t="s"/>
-      <c r="AC54" t="s"/>
       <c r="AD54" t="s">
         <v>380</v>
       </c>
-      <c r="AE54" t="s"/>
-      <c r="AF54" t="s"/>
-      <c r="AG54" t="s"/>
-      <c r="AH54" t="s"/>
-      <c r="AI54" t="s"/>
-      <c r="AJ54" t="s"/>
-      <c r="AK54" t="s"/>
-      <c r="AL54" t="s"/>
-      <c r="AM54" t="s"/>
-      <c r="AN54" t="s"/>
-    </row>
-    <row r="55" spans="1:40">
-      <c r="A55" t="n">
-        <v>380425.2002386088</v>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>380425.20023860881</v>
       </c>
       <c r="B55" t="s">
         <v>381</v>
@@ -5396,51 +3989,19 @@
       <c r="E55" t="s">
         <v>44</v>
       </c>
-      <c r="F55" t="s"/>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s"/>
-      <c r="J55" t="s"/>
-      <c r="K55" t="s"/>
       <c r="L55" t="s">
         <v>49</v>
       </c>
-      <c r="M55" t="s"/>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
-      <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
-      <c r="V55" t="s"/>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
-      <c r="Z55" t="s"/>
-      <c r="AA55" t="s"/>
-      <c r="AB55" t="s"/>
-      <c r="AC55" t="s"/>
       <c r="AD55" t="s">
         <v>383</v>
       </c>
-      <c r="AE55" t="s"/>
-      <c r="AF55" t="s"/>
       <c r="AG55" t="s">
         <v>384</v>
       </c>
-      <c r="AH55" t="s"/>
-      <c r="AI55" t="s"/>
-      <c r="AJ55" t="s"/>
-      <c r="AK55" t="s"/>
-      <c r="AL55" t="s"/>
-      <c r="AM55" t="s"/>
-      <c r="AN55" t="s"/>
-    </row>
-    <row r="56" spans="1:40">
-      <c r="A56" t="n">
-        <v>368602.9741516522</v>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>368602.97415165219</v>
       </c>
       <c r="B56" t="s">
         <v>385</v>
@@ -5454,49 +4015,16 @@
       <c r="E56" t="s">
         <v>44</v>
       </c>
-      <c r="F56" t="s"/>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s"/>
-      <c r="J56" t="s"/>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
-      <c r="M56" t="s"/>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
-      <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
-      <c r="V56" t="s"/>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
-      <c r="Z56" t="s"/>
-      <c r="AA56" t="s"/>
-      <c r="AB56" t="s"/>
-      <c r="AC56" t="s"/>
       <c r="AD56" t="s">
         <v>387</v>
       </c>
-      <c r="AE56" t="s"/>
-      <c r="AF56" t="s"/>
       <c r="AG56" t="s">
         <v>388</v>
       </c>
-      <c r="AH56" t="s"/>
-      <c r="AI56" t="s"/>
-      <c r="AJ56" t="s"/>
-      <c r="AK56" t="s"/>
-      <c r="AL56" t="s"/>
-      <c r="AM56" t="s"/>
-      <c r="AN56" t="s"/>
-    </row>
-    <row r="57" spans="1:40">
-      <c r="A57" t="n">
-        <v>364089.2510195083</v>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>364089.25101950829</v>
       </c>
       <c r="B57" t="s">
         <v>389</v>
@@ -5510,49 +4038,16 @@
       <c r="E57" t="s">
         <v>44</v>
       </c>
-      <c r="F57" t="s"/>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s"/>
-      <c r="J57" t="s"/>
-      <c r="K57" t="s"/>
-      <c r="L57" t="s"/>
-      <c r="M57" t="s"/>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
-      <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
-      <c r="V57" t="s"/>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
       <c r="Y57" t="s">
         <v>391</v>
       </c>
-      <c r="Z57" t="s"/>
-      <c r="AA57" t="s"/>
-      <c r="AB57" t="s"/>
-      <c r="AC57" t="s"/>
-      <c r="AD57" t="s"/>
-      <c r="AE57" t="s"/>
-      <c r="AF57" t="s"/>
       <c r="AG57" t="s">
         <v>392</v>
       </c>
-      <c r="AH57" t="s"/>
-      <c r="AI57" t="s"/>
-      <c r="AJ57" t="s"/>
-      <c r="AK57" t="s"/>
-      <c r="AL57" t="s"/>
-      <c r="AM57" t="s"/>
-      <c r="AN57" t="s"/>
-    </row>
-    <row r="58" spans="1:40">
-      <c r="A58" t="n">
-        <v>326365.4235288757</v>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>326365.42352887569</v>
       </c>
       <c r="B58" t="s">
         <v>393</v>
@@ -5566,53 +4061,22 @@
       <c r="E58" t="s">
         <v>44</v>
       </c>
-      <c r="F58" t="s"/>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s"/>
-      <c r="J58" t="s"/>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
-      <c r="M58" t="s"/>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
       <c r="T58" t="s">
         <v>272</v>
       </c>
-      <c r="U58" t="s"/>
-      <c r="V58" t="s"/>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
       <c r="Y58" t="s">
         <v>132</v>
       </c>
-      <c r="Z58" t="s"/>
-      <c r="AA58" t="s"/>
-      <c r="AB58" t="s"/>
-      <c r="AC58" t="s"/>
       <c r="AD58" t="s">
         <v>395</v>
       </c>
-      <c r="AE58" t="s"/>
-      <c r="AF58" t="s"/>
       <c r="AG58" t="s">
         <v>138</v>
       </c>
-      <c r="AH58" t="s"/>
-      <c r="AI58" t="s"/>
-      <c r="AJ58" t="s"/>
-      <c r="AK58" t="s"/>
-      <c r="AL58" t="s"/>
-      <c r="AM58" t="s"/>
-      <c r="AN58" t="s"/>
-    </row>
-    <row r="59" spans="1:40">
-      <c r="A59" t="n">
-        <v>322089.6143891398</v>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>322089.61438913981</v>
       </c>
       <c r="B59" t="s">
         <v>396</v>
@@ -5626,51 +4090,19 @@
       <c r="E59" t="s">
         <v>44</v>
       </c>
-      <c r="F59" t="s"/>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s"/>
-      <c r="J59" t="s"/>
-      <c r="K59" t="s"/>
-      <c r="L59" t="s"/>
-      <c r="M59" t="s"/>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
-      <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
-      <c r="V59" t="s"/>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
       <c r="Y59" t="s">
         <v>330</v>
       </c>
-      <c r="Z59" t="s"/>
-      <c r="AA59" t="s"/>
-      <c r="AB59" t="s"/>
-      <c r="AC59" t="s"/>
       <c r="AD59" t="s">
         <v>398</v>
       </c>
-      <c r="AE59" t="s"/>
-      <c r="AF59" t="s"/>
       <c r="AG59" t="s">
         <v>399</v>
       </c>
-      <c r="AH59" t="s"/>
-      <c r="AI59" t="s"/>
-      <c r="AJ59" t="s"/>
-      <c r="AK59" t="s"/>
-      <c r="AL59" t="s"/>
-      <c r="AM59" t="s"/>
-      <c r="AN59" t="s"/>
-    </row>
-    <row r="60" spans="1:40">
-      <c r="A60" t="n">
-        <v>231468.1829882922</v>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>231468.18298829219</v>
       </c>
       <c r="B60" t="s">
         <v>400</v>
@@ -5684,49 +4116,16 @@
       <c r="E60" t="s">
         <v>44</v>
       </c>
-      <c r="F60" t="s"/>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s"/>
-      <c r="J60" t="s"/>
-      <c r="K60" t="s"/>
-      <c r="L60" t="s"/>
-      <c r="M60" t="s"/>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
-      <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
-      <c r="V60" t="s"/>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
-      <c r="Z60" t="s"/>
-      <c r="AA60" t="s"/>
-      <c r="AB60" t="s"/>
-      <c r="AC60" t="s"/>
       <c r="AD60" t="s">
         <v>402</v>
       </c>
-      <c r="AE60" t="s"/>
-      <c r="AF60" t="s"/>
       <c r="AG60" t="s">
         <v>399</v>
       </c>
-      <c r="AH60" t="s"/>
-      <c r="AI60" t="s"/>
-      <c r="AJ60" t="s"/>
-      <c r="AK60" t="s"/>
-      <c r="AL60" t="s"/>
-      <c r="AM60" t="s"/>
-      <c r="AN60" t="s"/>
-    </row>
-    <row r="61" spans="1:40">
-      <c r="A61" t="n">
-        <v>231468.1829882922</v>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>231468.18298829219</v>
       </c>
       <c r="B61" t="s">
         <v>403</v>
@@ -5740,49 +4139,16 @@
       <c r="E61" t="s">
         <v>44</v>
       </c>
-      <c r="F61" t="s"/>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s"/>
-      <c r="J61" t="s"/>
-      <c r="K61" t="s"/>
-      <c r="L61" t="s"/>
-      <c r="M61" t="s"/>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
-      <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
-      <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
-      <c r="V61" t="s"/>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
-      <c r="Z61" t="s"/>
-      <c r="AA61" t="s"/>
-      <c r="AB61" t="s"/>
-      <c r="AC61" t="s"/>
       <c r="AD61" t="s">
         <v>405</v>
       </c>
-      <c r="AE61" t="s"/>
-      <c r="AF61" t="s"/>
       <c r="AG61" t="s">
         <v>399</v>
       </c>
-      <c r="AH61" t="s"/>
-      <c r="AI61" t="s"/>
-      <c r="AJ61" t="s"/>
-      <c r="AK61" t="s"/>
-      <c r="AL61" t="s"/>
-      <c r="AM61" t="s"/>
-      <c r="AN61" t="s"/>
-    </row>
-    <row r="62" spans="1:40">
-      <c r="A62" t="n">
-        <v>231468.1829882922</v>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>231468.18298829219</v>
       </c>
       <c r="B62" t="s">
         <v>406</v>
@@ -5796,49 +4162,16 @@
       <c r="E62" t="s">
         <v>44</v>
       </c>
-      <c r="F62" t="s"/>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s"/>
-      <c r="J62" t="s"/>
-      <c r="K62" t="s"/>
-      <c r="L62" t="s"/>
-      <c r="M62" t="s"/>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
-      <c r="S62" t="s"/>
-      <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
-      <c r="V62" t="s"/>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
-      <c r="Z62" t="s"/>
-      <c r="AA62" t="s"/>
-      <c r="AB62" t="s"/>
-      <c r="AC62" t="s"/>
       <c r="AD62" t="s">
         <v>408</v>
       </c>
-      <c r="AE62" t="s"/>
-      <c r="AF62" t="s"/>
       <c r="AG62" t="s">
         <v>399</v>
       </c>
-      <c r="AH62" t="s"/>
-      <c r="AI62" t="s"/>
-      <c r="AJ62" t="s"/>
-      <c r="AK62" t="s"/>
-      <c r="AL62" t="s"/>
-      <c r="AM62" t="s"/>
-      <c r="AN62" t="s"/>
-    </row>
-    <row r="63" spans="1:40">
-      <c r="A63" t="n">
-        <v>206072.8512913737</v>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>206072.85129137369</v>
       </c>
       <c r="B63" t="s">
         <v>409</v>
@@ -5852,49 +4185,16 @@
       <c r="E63" t="s">
         <v>44</v>
       </c>
-      <c r="F63" t="s"/>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s"/>
-      <c r="J63" t="s"/>
-      <c r="K63" t="s"/>
-      <c r="L63" t="s"/>
-      <c r="M63" t="s"/>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
-      <c r="S63" t="s"/>
-      <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
-      <c r="V63" t="s"/>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
-      <c r="Z63" t="s"/>
-      <c r="AA63" t="s"/>
-      <c r="AB63" t="s"/>
-      <c r="AC63" t="s"/>
       <c r="AD63" t="s">
         <v>411</v>
       </c>
-      <c r="AE63" t="s"/>
-      <c r="AF63" t="s"/>
       <c r="AG63" t="s">
         <v>256</v>
       </c>
-      <c r="AH63" t="s"/>
-      <c r="AI63" t="s"/>
-      <c r="AJ63" t="s"/>
-      <c r="AK63" t="s"/>
-      <c r="AL63" t="s"/>
-      <c r="AM63" t="s"/>
-      <c r="AN63" t="s"/>
-    </row>
-    <row r="64" spans="1:40">
-      <c r="A64" t="n">
-        <v>206072.8512913737</v>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>206072.85129137369</v>
       </c>
       <c r="B64" t="s">
         <v>412</v>
@@ -5908,49 +4208,16 @@
       <c r="E64" t="s">
         <v>44</v>
       </c>
-      <c r="F64" t="s"/>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s"/>
-      <c r="J64" t="s"/>
-      <c r="K64" t="s"/>
-      <c r="L64" t="s"/>
-      <c r="M64" t="s"/>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
-      <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
-      <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
-      <c r="V64" t="s"/>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
-      <c r="Z64" t="s"/>
-      <c r="AA64" t="s"/>
-      <c r="AB64" t="s"/>
-      <c r="AC64" t="s"/>
       <c r="AD64" t="s">
         <v>414</v>
       </c>
-      <c r="AE64" t="s"/>
-      <c r="AF64" t="s"/>
       <c r="AG64" t="s">
         <v>256</v>
       </c>
-      <c r="AH64" t="s"/>
-      <c r="AI64" t="s"/>
-      <c r="AJ64" t="s"/>
-      <c r="AK64" t="s"/>
-      <c r="AL64" t="s"/>
-      <c r="AM64" t="s"/>
-      <c r="AN64" t="s"/>
-    </row>
-    <row r="65" spans="1:40">
-      <c r="A65" t="n">
-        <v>206072.8512913737</v>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>206072.85129137369</v>
       </c>
       <c r="B65" t="s">
         <v>415</v>
@@ -5964,49 +4231,16 @@
       <c r="E65" t="s">
         <v>44</v>
       </c>
-      <c r="F65" t="s"/>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s"/>
-      <c r="J65" t="s"/>
-      <c r="K65" t="s"/>
-      <c r="L65" t="s"/>
-      <c r="M65" t="s"/>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
-      <c r="P65" t="s"/>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
-      <c r="S65" t="s"/>
-      <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
-      <c r="V65" t="s"/>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
-      <c r="Z65" t="s"/>
-      <c r="AA65" t="s"/>
-      <c r="AB65" t="s"/>
-      <c r="AC65" t="s"/>
       <c r="AD65" t="s">
         <v>417</v>
       </c>
-      <c r="AE65" t="s"/>
-      <c r="AF65" t="s"/>
       <c r="AG65" t="s">
         <v>256</v>
       </c>
-      <c r="AH65" t="s"/>
-      <c r="AI65" t="s"/>
-      <c r="AJ65" t="s"/>
-      <c r="AK65" t="s"/>
-      <c r="AL65" t="s"/>
-      <c r="AM65" t="s"/>
-      <c r="AN65" t="s"/>
-    </row>
-    <row r="66" spans="1:40">
-      <c r="A66" t="n">
-        <v>185756.5859338389</v>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>185756.58593383891</v>
       </c>
       <c r="B66" t="s">
         <v>418</v>
@@ -6020,47 +4254,13 @@
       <c r="E66" t="s">
         <v>44</v>
       </c>
-      <c r="F66" t="s"/>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s"/>
-      <c r="J66" t="s"/>
-      <c r="K66" t="s"/>
-      <c r="L66" t="s"/>
-      <c r="M66" t="s"/>
-      <c r="N66" t="s"/>
-      <c r="O66" t="s"/>
-      <c r="P66" t="s"/>
-      <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
-      <c r="S66" t="s"/>
-      <c r="T66" t="s"/>
-      <c r="U66" t="s"/>
-      <c r="V66" t="s"/>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
-      <c r="Z66" t="s"/>
-      <c r="AA66" t="s"/>
-      <c r="AB66" t="s"/>
-      <c r="AC66" t="s"/>
       <c r="AD66" t="s">
         <v>420</v>
       </c>
-      <c r="AE66" t="s"/>
-      <c r="AF66" t="s"/>
-      <c r="AG66" t="s"/>
-      <c r="AH66" t="s"/>
-      <c r="AI66" t="s"/>
-      <c r="AJ66" t="s"/>
-      <c r="AK66" t="s"/>
-      <c r="AL66" t="s"/>
-      <c r="AM66" t="s"/>
-      <c r="AN66" t="s"/>
-    </row>
-    <row r="67" spans="1:40">
-      <c r="A67" t="n">
-        <v>177192.1748987854</v>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>177192.17489878539</v>
       </c>
       <c r="B67" t="s">
         <v>421</v>
@@ -6074,45 +4274,24 @@
       <c r="E67" t="s">
         <v>44</v>
       </c>
-      <c r="F67" t="s"/>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s"/>
-      <c r="J67" t="s"/>
-      <c r="K67" t="s"/>
-      <c r="L67" t="s"/>
-      <c r="M67" t="s"/>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
-      <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
       <c r="T67" t="s">
         <v>423</v>
       </c>
-      <c r="U67" t="s"/>
-      <c r="V67" t="s"/>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
-      <c r="Z67" t="s"/>
-      <c r="AA67" t="s"/>
-      <c r="AB67" t="s"/>
-      <c r="AC67" t="s"/>
-      <c r="AD67" t="s"/>
-      <c r="AE67" t="s"/>
-      <c r="AF67" t="s"/>
-      <c r="AG67" t="s"/>
-      <c r="AH67" t="s"/>
-      <c r="AI67" t="s"/>
-      <c r="AJ67" t="s"/>
-      <c r="AK67" t="s"/>
-      <c r="AL67" t="s"/>
-      <c r="AM67" t="s"/>
-      <c r="AN67" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <autoFilter ref="A3:AN3" xr:uid="{B99B7EF6-8D19-45A5-ABCE-086C9AF293DF}"/>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>